--- a/charts.xlsx
+++ b/charts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="B4 Throughputs" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-Wasm</t>
   </si>
   <si>
     <t xml:space="preserve">Automerge-Wasm</t>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yjs stddev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-Wasm stddev</t>
   </si>
   <si>
     <t xml:space="preserve">Automerge-Wasm stddev</t>
@@ -5193,11 +5199,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28904065"/>
-        <c:axId val="46864143"/>
+        <c:axId val="91934179"/>
+        <c:axId val="67157823"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28904065"/>
+        <c:axId val="91934179"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="259"/>
@@ -5255,12 +5261,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46864143"/>
+        <c:crossAx val="67157823"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46864143"/>
+        <c:axId val="67157823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28904065"/>
+        <c:crossAx val="91934179"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8661,11 +8667,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98002498"/>
-        <c:axId val="25636239"/>
+        <c:axId val="13662996"/>
+        <c:axId val="3256360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98002498"/>
+        <c:axId val="13662996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="259"/>
@@ -8723,12 +8729,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25636239"/>
+        <c:crossAx val="3256360"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25636239"/>
+        <c:axId val="3256360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8794,7 +8800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98002498"/>
+        <c:crossAx val="13662996"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8863,9 +8869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371880</xdr:colOff>
+      <xdr:colOff>371520</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8873,8 +8879,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3151440" y="5421600"/>
-        <a:ext cx="3644640" cy="2246040"/>
+        <a:off x="3153960" y="5421600"/>
+        <a:ext cx="3649320" cy="2245680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8898,9 +8904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401760</xdr:colOff>
+      <xdr:colOff>401400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8908,8 +8914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3161520" y="5221080"/>
-        <a:ext cx="3664440" cy="2255760"/>
+        <a:off x="3164040" y="5221080"/>
+        <a:ext cx="3669120" cy="2255400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8927,13 +8933,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D71" activeCellId="0" sqref="D71"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -9065,100 +9071,100 @@
         <v>6</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4988</v>
+        <v>34902</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">259778/(B12/1000)</f>
-        <v>52080.5934242181</v>
+        <v>7443.06916509083</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
-        <v>4977</v>
+        <v>35084</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">259778/(B13/1000)</f>
-        <v>52195.7002210167</v>
+        <v>7404.45787253449</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
-        <v>5005</v>
+        <v>34940</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">259778/(B14/1000)</f>
-        <v>51903.6963036963</v>
+        <v>7434.97424155696</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="n">
-        <v>4992</v>
+        <v>34938</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">259778/(B15/1000)</f>
-        <v>52038.8621794872</v>
+        <v>7435.39985116492</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
-        <v>4992</v>
+        <v>34845</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">259778/(B16/1000)</f>
-        <v>52038.8621794872</v>
+        <v>7455.24465490027</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
-        <v>5004</v>
+        <v>35016</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">259778/(B17/1000)</f>
-        <v>51914.068745004</v>
+        <v>7418.83710303861</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
-        <v>5015</v>
+        <v>34991</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">259778/(B18/1000)</f>
-        <v>51800.1994017946</v>
+        <v>7424.13763539196</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
-        <v>4963</v>
+        <v>34989</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">259778/(B19/1000)</f>
-        <v>52342.9377392706</v>
+        <v>7424.56200520164</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
-        <v>4995</v>
+        <v>34913</v>
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">259778/(B20/1000)</f>
-        <v>52007.6076076076</v>
+        <v>7440.72408558417</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
-        <v>4963</v>
+        <v>34999</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">259778/(B21/1000)</f>
-        <v>52342.9377392706</v>
+        <v>7422.44064116118</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">AVERAGE(C12:C21)</f>
-        <v>52066.5465540853</v>
+        <v>7430.3847255625</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="false">STDEV(C12:C21)</f>
-        <v>181.162695200764</v>
+        <v>14.4284309581283</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9166,100 +9172,100 @@
         <v>7</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2646</v>
+        <v>4988</v>
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">259778/(B22/1000)</f>
-        <v>98177.626606198</v>
+        <v>52080.5934242181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="n">
-        <v>2694</v>
+        <v>4977</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">259778/(B23/1000)</f>
-        <v>96428.3593170007</v>
+        <v>52195.7002210167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="n">
-        <v>2644</v>
+        <v>5005</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">259778/(B24/1000)</f>
-        <v>98251.8910741301</v>
+        <v>51903.6963036963</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="n">
-        <v>2711</v>
+        <v>4992</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">259778/(B25/1000)</f>
-        <v>95823.6812984139</v>
+        <v>52038.8621794872</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
-        <v>2848</v>
+        <v>4992</v>
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">259778/(B26/1000)</f>
-        <v>91214.1853932584</v>
+        <v>52038.8621794872</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
-        <v>2820</v>
+        <v>5004</v>
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">259778/(B27/1000)</f>
-        <v>92119.8581560284</v>
+        <v>51914.068745004</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
-        <v>2671</v>
+        <v>5015</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">259778/(B28/1000)</f>
-        <v>97258.7046050169</v>
+        <v>51800.1994017946</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
-        <v>3020</v>
+        <v>4963</v>
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">259778/(B29/1000)</f>
-        <v>86019.2052980132</v>
+        <v>52342.9377392706</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
-        <v>2649</v>
+        <v>4995</v>
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">259778/(B30/1000)</f>
-        <v>98066.4401661004</v>
+        <v>52007.6076076076</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
-        <v>3023</v>
+        <v>4963</v>
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">259778/(B31/1000)</f>
-        <v>85933.8405557393</v>
+        <v>52342.9377392706</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">AVERAGE(C22:C31)</f>
-        <v>93929.3792469899</v>
+        <v>52066.5465540853</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">STDEV(C22:C31)</f>
-        <v>4852.38556759558</v>
+        <v>181.162695200764</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9267,100 +9273,100 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>15146</v>
+        <v>2646</v>
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">259778/(B32/1000)</f>
-        <v>17151.5911791892</v>
+        <v>98177.626606198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
-        <v>15106</v>
+        <v>2694</v>
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">259778/(B33/1000)</f>
-        <v>17197.0078114656</v>
+        <v>96428.3593170007</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="n">
-        <v>15320</v>
+        <v>2644</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">259778/(B34/1000)</f>
-        <v>16956.7885117493</v>
+        <v>98251.8910741301</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="n">
-        <v>15026</v>
+        <v>2711</v>
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">259778/(B35/1000)</f>
-        <v>17288.5664847598</v>
+        <v>95823.6812984139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
-        <v>14713</v>
+        <v>2848</v>
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">259778/(B36/1000)</f>
-        <v>17656.3583225719</v>
+        <v>91214.1853932584</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
-        <v>14938</v>
+        <v>2820</v>
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">259778/(B37/1000)</f>
-        <v>17390.4137100013</v>
+        <v>92119.8581560284</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
-        <v>15146</v>
+        <v>2671</v>
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">259778/(B38/1000)</f>
-        <v>17151.5911791892</v>
+        <v>97258.7046050169</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
-        <v>15493</v>
+        <v>3020</v>
       </c>
       <c r="C39" s="0" t="n">
         <f aca="false">259778/(B39/1000)</f>
-        <v>16767.4433615181</v>
+        <v>86019.2052980132</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
-        <v>15855</v>
+        <v>2649</v>
       </c>
       <c r="C40" s="0" t="n">
         <f aca="false">259778/(B40/1000)</f>
-        <v>16384.6105329549</v>
+        <v>98066.4401661004</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
-        <v>15799</v>
+        <v>3023</v>
       </c>
       <c r="C41" s="0" t="n">
         <f aca="false">259778/(B41/1000)</f>
-        <v>16442.6862459649</v>
+        <v>85933.8405557393</v>
       </c>
       <c r="D41" s="0" t="n">
         <f aca="false">AVERAGE(C32:C41)</f>
-        <v>17038.7057339364</v>
+        <v>93929.3792469899</v>
       </c>
       <c r="E41" s="0" t="n">
         <f aca="false">STDEV(C32:C41)</f>
-        <v>405.728820039716</v>
+        <v>4852.38556759558</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9368,100 +9374,100 @@
         <v>9</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>14884</v>
+        <v>15146</v>
       </c>
       <c r="C42" s="0" t="n">
         <f aca="false">259778/(B42/1000)</f>
-        <v>17453.5071217415</v>
+        <v>17151.5911791892</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
-        <v>15883</v>
+        <v>15106</v>
       </c>
       <c r="C43" s="0" t="n">
         <f aca="false">259778/(B43/1000)</f>
-        <v>16355.7262481899</v>
+        <v>17197.0078114656</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
-        <v>15753</v>
+        <v>15320</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">259778/(B44/1000)</f>
-        <v>16490.7001840919</v>
+        <v>16956.7885117493</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
-        <v>16702</v>
+        <v>15026</v>
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">259778/(B45/1000)</f>
-        <v>15553.7061429769</v>
+        <v>17288.5664847598</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
-        <v>15909</v>
+        <v>14713</v>
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">259778/(B46/1000)</f>
-        <v>16328.9961656924</v>
+        <v>17656.3583225719</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
-        <v>16037</v>
+        <v>14938</v>
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">259778/(B47/1000)</f>
-        <v>16198.6655858328</v>
+        <v>17390.4137100013</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
-        <v>17148</v>
+        <v>15146</v>
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">259778/(B48/1000)</f>
-        <v>15149.1719150921</v>
+        <v>17151.5911791892</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="n">
-        <v>15903</v>
+        <v>15493</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">259778/(B49/1000)</f>
-        <v>16335.1568886374</v>
+        <v>16767.4433615181</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="n">
-        <v>16404</v>
+        <v>15855</v>
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">259778/(B50/1000)</f>
-        <v>15836.2594489149</v>
+        <v>16384.6105329549</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
-        <v>15785</v>
+        <v>15799</v>
       </c>
       <c r="C51" s="0" t="n">
         <f aca="false">259778/(B51/1000)</f>
-        <v>16457.2695597086</v>
+        <v>16442.6862459649</v>
       </c>
       <c r="D51" s="0" t="n">
         <f aca="false">AVERAGE(C42:C51)</f>
-        <v>16215.9159260878</v>
+        <v>17038.7057339364</v>
       </c>
       <c r="E51" s="0" t="n">
         <f aca="false">STDEV(C42:C51)</f>
-        <v>617.597819792723</v>
+        <v>405.728820039716</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9469,100 +9475,100 @@
         <v>10</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>702651</v>
+        <v>14884</v>
       </c>
       <c r="C52" s="0" t="n">
-        <f aca="false">100*259778/(B52/1000)</f>
-        <v>36971.1279141423</v>
+        <f aca="false">259778/(B52/1000)</f>
+        <v>17453.5071217415</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
-        <v>712463</v>
+        <v>15883</v>
       </c>
       <c r="C53" s="0" t="n">
-        <f aca="false">100*259778/(B53/1000)</f>
-        <v>36461.9636388135</v>
+        <f aca="false">259778/(B53/1000)</f>
+        <v>16355.7262481899</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
-        <v>720850</v>
+        <v>15753</v>
       </c>
       <c r="C54" s="0" t="n">
-        <f aca="false">100*259778/(B54/1000)</f>
-        <v>36037.7332316016</v>
+        <f aca="false">259778/(B54/1000)</f>
+        <v>16490.7001840919</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
-        <v>725834</v>
+        <v>16702</v>
       </c>
       <c r="C55" s="0" t="n">
-        <f aca="false">100*259778/(B55/1000)</f>
-        <v>35790.2771157041</v>
+        <f aca="false">259778/(B55/1000)</f>
+        <v>15553.7061429769</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
-        <v>736543</v>
+        <v>15909</v>
       </c>
       <c r="C56" s="0" t="n">
-        <f aca="false">100*259778/(B56/1000)</f>
-        <v>35269.9027755338</v>
+        <f aca="false">259778/(B56/1000)</f>
+        <v>16328.9961656924</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
-        <v>732443</v>
+        <v>16037</v>
       </c>
       <c r="C57" s="0" t="n">
-        <f aca="false">100*259778/(B57/1000)</f>
-        <v>35467.3332941949</v>
+        <f aca="false">259778/(B57/1000)</f>
+        <v>16198.6655858328</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
-        <v>734077</v>
+        <v>17148</v>
       </c>
       <c r="C58" s="0" t="n">
-        <f aca="false">100*259778/(B58/1000)</f>
-        <v>35388.3856870601</v>
+        <f aca="false">259778/(B58/1000)</f>
+        <v>15149.1719150921</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
-        <v>735548</v>
+        <v>15903</v>
       </c>
       <c r="C59" s="0" t="n">
-        <f aca="false">100*259778/(B59/1000)</f>
-        <v>35317.6135343988</v>
+        <f aca="false">259778/(B59/1000)</f>
+        <v>16335.1568886374</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
-        <v>726331</v>
+        <v>16404</v>
       </c>
       <c r="C60" s="0" t="n">
-        <f aca="false">100*259778/(B60/1000)</f>
-        <v>35765.7872237313</v>
+        <f aca="false">259778/(B60/1000)</f>
+        <v>15836.2594489149</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
-        <v>727492</v>
+        <v>15785</v>
       </c>
       <c r="C61" s="0" t="n">
-        <f aca="false">100*259778/(B61/1000)</f>
-        <v>35708.7088242895</v>
+        <f aca="false">259778/(B61/1000)</f>
+        <v>16457.2695597086</v>
       </c>
       <c r="D61" s="0" t="n">
         <f aca="false">AVERAGE(C52:C61)</f>
-        <v>35817.883323947</v>
+        <v>16215.9159260878</v>
       </c>
       <c r="E61" s="0" t="n">
         <f aca="false">STDEV(C52:C61)</f>
-        <v>544.308713844159</v>
+        <v>617.597819792723</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9570,99 +9576,200 @@
         <v>11</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>344402</v>
+        <v>702651</v>
       </c>
       <c r="C62" s="0" t="n">
         <f aca="false">100*259778/(B62/1000)</f>
-        <v>75428.7141189656</v>
+        <v>36971.1279141423</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="n">
-        <v>357431</v>
+        <v>712463</v>
       </c>
       <c r="C63" s="0" t="n">
         <f aca="false">100*259778/(B63/1000)</f>
-        <v>72679.202419488</v>
+        <v>36461.9636388135</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="n">
-        <v>350658</v>
+        <v>720850</v>
       </c>
       <c r="C64" s="0" t="n">
         <f aca="false">100*259778/(B64/1000)</f>
-        <v>74083.0096561322</v>
+        <v>36037.7332316016</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="n">
-        <v>362763</v>
+        <v>725834</v>
       </c>
       <c r="C65" s="0" t="n">
         <f aca="false">100*259778/(B65/1000)</f>
-        <v>71610.9415789372</v>
+        <v>35790.2771157041</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="n">
-        <v>340851</v>
+        <v>736543</v>
       </c>
       <c r="C66" s="0" t="n">
         <f aca="false">100*259778/(B66/1000)</f>
-        <v>76214.5336231961</v>
+        <v>35269.9027755338</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0" t="n">
-        <v>359744</v>
+        <v>732443</v>
       </c>
       <c r="C67" s="0" t="n">
         <f aca="false">100*259778/(B67/1000)</f>
-        <v>72211.9062444405</v>
+        <v>35467.3332941949</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="n">
-        <v>352818</v>
+        <v>734077</v>
       </c>
       <c r="C68" s="0" t="n">
         <f aca="false">100*259778/(B68/1000)</f>
-        <v>73629.4633493756</v>
+        <v>35388.3856870601</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="n">
-        <v>384906</v>
+        <v>735548</v>
       </c>
       <c r="C69" s="0" t="n">
         <f aca="false">100*259778/(B69/1000)</f>
-        <v>67491.2835861223</v>
+        <v>35317.6135343988</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="n">
-        <v>342866</v>
+        <v>726331</v>
       </c>
       <c r="C70" s="0" t="n">
         <f aca="false">100*259778/(B70/1000)</f>
-        <v>75766.6260288276</v>
+        <v>35765.7872237313</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="n">
-        <v>349806</v>
+        <v>727492</v>
       </c>
       <c r="C71" s="0" t="n">
         <f aca="false">100*259778/(B71/1000)</f>
-        <v>74263.4488830952</v>
+        <v>35708.7088242895</v>
       </c>
       <c r="D71" s="0" t="n">
         <f aca="false">AVERAGE(C62:C71)</f>
-        <v>73337.912948858</v>
+        <v>35817.883323947</v>
       </c>
       <c r="E71" s="0" t="n">
         <f aca="false">STDEV(C62:C71)</f>
+        <v>544.308713844159</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>344402</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <f aca="false">100*259778/(B72/1000)</f>
+        <v>75428.7141189656</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="n">
+        <v>357431</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <f aca="false">100*259778/(B73/1000)</f>
+        <v>72679.202419488</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="n">
+        <v>350658</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <f aca="false">100*259778/(B74/1000)</f>
+        <v>74083.0096561322</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="n">
+        <v>362763</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <f aca="false">100*259778/(B75/1000)</f>
+        <v>71610.9415789372</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="n">
+        <v>340851</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <f aca="false">100*259778/(B76/1000)</f>
+        <v>76214.5336231961</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="n">
+        <v>359744</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <f aca="false">100*259778/(B77/1000)</f>
+        <v>72211.9062444405</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="n">
+        <v>352818</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <f aca="false">100*259778/(B78/1000)</f>
+        <v>73629.4633493756</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="n">
+        <v>384906</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <f aca="false">100*259778/(B79/1000)</f>
+        <v>67491.2835861223</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="n">
+        <v>342866</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <f aca="false">100*259778/(B80/1000)</f>
+        <v>75766.6260288276</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="n">
+        <v>349806</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <f aca="false">100*259778/(B81/1000)</f>
+        <v>74263.4488830952</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <f aca="false">AVERAGE(C72:C81)</f>
+        <v>73337.912948858</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <f aca="false">STDEV(C72:C81)</f>
         <v>2558.4093679079</v>
       </c>
     </row>
@@ -9682,19 +9789,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="15.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9702,36 +9809,42 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>7539926</v>
@@ -9740,33 +9853,39 @@
         <v>82149</v>
       </c>
       <c r="D2" s="1" t="n">
+        <v>7506202</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>108180</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>32626661</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>12042680</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>39352063</v>
+        <v>12042680</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="n">
+        <v>39352063</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>48962944</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="M2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">B2/259778</f>
@@ -9778,15 +9897,15 @@
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">D2/259778</f>
-        <v>125.594395984264</v>
+        <v>28.8946793030973</v>
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">E2/259778</f>
-        <v>0</v>
+        <v>0.41643249235886</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">F2/259778</f>
-        <v>46.3575822433001</v>
+        <v>125.594395984264</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">G2/259778</f>
@@ -9794,7 +9913,7 @@
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">H2/259778</f>
-        <v>151.483432007329</v>
+        <v>46.3575822433001</v>
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">I2/259778</f>
@@ -9802,10 +9921,18 @@
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">J2/259778</f>
-        <v>188.479948263517</v>
+        <v>151.483432007329</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">K2/259778</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">L2/259778</f>
+        <v>188.479948263517</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <f aca="false">M2/259778</f>
         <v>0</v>
       </c>
     </row>
@@ -9831,14 +9958,14 @@
       <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -10623,7 +10750,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>93</v>
@@ -18446,7 +18573,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">AVERAGE(B4:B13)</f>
@@ -19491,7 +19618,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">STDEV(B4:B14)</f>
@@ -20536,7 +20663,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">B14/1000</f>
@@ -21581,7 +21708,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>13</v>
@@ -29404,7 +29531,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">AVERAGE(B18:B27)</f>
@@ -30449,7 +30576,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">STDEV(B18:B28)</f>
@@ -32539,7 +32666,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -33324,7 +33451,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">B31/1000</f>
@@ -34386,18 +34513,18 @@
   </sheetPr>
   <dimension ref="A1:JA30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -35182,7 +35309,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -35967,7 +36094,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">(B2/1000000)*20</f>
@@ -37012,7 +37139,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>6712</v>
@@ -44835,7 +44962,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">AVERAGE(B4:B13)</f>
@@ -45880,7 +46007,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">STDEV(B4:B14)</f>
@@ -46925,7 +47052,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">B14/1000000</f>
@@ -47970,7 +48097,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-15680</v>
@@ -55793,7 +55920,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">AVERAGE(B18:B27)</f>
@@ -56838,7 +56965,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">STDEV(B18:B28)</f>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="B4 Throughputs" sheetId="1" state="visible" r:id="rId2"/>
@@ -285,7 +285,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5199,11 +5199,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91934179"/>
-        <c:axId val="67157823"/>
+        <c:axId val="90324093"/>
+        <c:axId val="59969766"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91934179"/>
+        <c:axId val="90324093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="259"/>
@@ -5261,12 +5261,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67157823"/>
+        <c:crossAx val="59969766"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67157823"/>
+        <c:axId val="59969766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5331,7 +5331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91934179"/>
+        <c:crossAx val="90324093"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5387,7 +5387,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8667,11 +8667,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13662996"/>
-        <c:axId val="3256360"/>
+        <c:axId val="55171602"/>
+        <c:axId val="73108833"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13662996"/>
+        <c:axId val="55171602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="259"/>
@@ -8729,12 +8729,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3256360"/>
+        <c:crossAx val="73108833"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3256360"/>
+        <c:axId val="73108833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8800,7 +8800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13662996"/>
+        <c:crossAx val="55171602"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8869,9 +8869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371520</xdr:colOff>
+      <xdr:colOff>371160</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8879,8 +8879,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3153960" y="5421600"/>
-        <a:ext cx="3649320" cy="2245680"/>
+        <a:off x="3156480" y="5421600"/>
+        <a:ext cx="3654360" cy="2245320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8904,9 +8904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401400</xdr:colOff>
+      <xdr:colOff>401040</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8914,8 +8914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3164040" y="5221080"/>
-        <a:ext cx="3669120" cy="2255400"/>
+        <a:off x="3166560" y="5221080"/>
+        <a:ext cx="3674160" cy="2255040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8935,11 +8935,11 @@
   </sheetPr>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -9475,100 +9475,100 @@
         <v>10</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>14884</v>
+        <v>15994</v>
       </c>
       <c r="C52" s="0" t="n">
         <f aca="false">259778/(B52/1000)</f>
-        <v>17453.5071217415</v>
+        <v>16242.2158309366</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
-        <v>15883</v>
+        <v>16974</v>
       </c>
       <c r="C53" s="0" t="n">
         <f aca="false">259778/(B53/1000)</f>
-        <v>16355.7262481899</v>
+        <v>15304.4656533522</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
-        <v>15753</v>
+        <v>16734</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">259778/(B54/1000)</f>
-        <v>16490.7001840919</v>
+        <v>15523.9631887176</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
-        <v>16702</v>
+        <v>16424</v>
       </c>
       <c r="C55" s="0" t="n">
         <f aca="false">259778/(B55/1000)</f>
-        <v>15553.7061429769</v>
+        <v>15816.9751583049</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
-        <v>15909</v>
+        <v>16950</v>
       </c>
       <c r="C56" s="0" t="n">
         <f aca="false">259778/(B56/1000)</f>
-        <v>16328.9961656924</v>
+        <v>15326.1356932153</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
-        <v>16037</v>
+        <v>16574</v>
       </c>
       <c r="C57" s="0" t="n">
         <f aca="false">259778/(B57/1000)</f>
-        <v>16198.6655858328</v>
+        <v>15673.8264752021</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
-        <v>17148</v>
+        <v>16773</v>
       </c>
       <c r="C58" s="0" t="n">
         <f aca="false">259778/(B58/1000)</f>
-        <v>15149.1719150921</v>
+        <v>15487.86740595</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
-        <v>15903</v>
+        <v>16106</v>
       </c>
       <c r="C59" s="0" t="n">
         <f aca="false">259778/(B59/1000)</f>
-        <v>16335.1568886374</v>
+        <v>16129.2685955544</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
-        <v>16404</v>
+        <v>16668</v>
       </c>
       <c r="C60" s="0" t="n">
         <f aca="false">259778/(B60/1000)</f>
-        <v>15836.2594489149</v>
+        <v>15585.4331653468</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
-        <v>15785</v>
+        <v>16912</v>
       </c>
       <c r="C61" s="0" t="n">
         <f aca="false">259778/(B61/1000)</f>
-        <v>16457.2695597086</v>
+        <v>15360.5723746452</v>
       </c>
       <c r="D61" s="0" t="n">
         <f aca="false">AVERAGE(C52:C61)</f>
-        <v>16215.9159260878</v>
+        <v>15645.0723541225</v>
       </c>
       <c r="E61" s="0" t="n">
         <f aca="false">STDEV(C52:C61)</f>
-        <v>617.597819792723</v>
+        <v>327.111112756461</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9791,8 +9791,8 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9958,7 +9958,7 @@
       <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.39"/>
   </cols>
@@ -34517,7 +34517,7 @@
       <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.39"/>
   </cols>
